--- a/docs/ValueSet-BRTerminologiaMedicamento.xlsx
+++ b/docs/ValueSet-BRTerminologiaMedicamento.xlsx
@@ -52,7 +52,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>

--- a/docs/ValueSet-BRTerminologiaMedicamento.xlsx
+++ b/docs/ValueSet-BRTerminologiaMedicamento.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-BRTerminologiaMedicamento.xlsx
+++ b/docs/ValueSet-BRTerminologiaMedicamento.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-BRTerminologiaMedicamento.xlsx
+++ b/docs/ValueSet-BRTerminologiaMedicamento.xlsx
@@ -7,11 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Terminologia de " r:id="rId4" sheetId="2"/>
-    <sheet name="Include from Terminologia de  2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from Terminologia de  3" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from Terminologia de  4" r:id="rId7" sheetId="5"/>
-    <sheet name="Include from Terminologia de  5" r:id="rId8" sheetId="6"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #3" r:id="rId7" sheetId="5"/>
+    <sheet name="Include #4" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
@@ -76,7 +76,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
